--- a/config_3.30/act_hhl_ty_config.xlsx
+++ b/config_3.30/act_hhl_ty_config.xlsx
@@ -292,10 +292,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>act_007=8_hhl_</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>智能按摩椅</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -309,6 +305,10 @@
   </si>
   <si>
     <t>卫龙亲嘴烧30片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_008_hhl_</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -751,7 +751,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -846,7 +846,7 @@
         <v>52</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>46</v>
@@ -921,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>36</v>
@@ -942,7 +942,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>37</v>
@@ -963,7 +963,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>38</v>
@@ -1020,7 +1020,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>49</v>
@@ -1077,7 +1077,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>36</v>
@@ -1098,7 +1098,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>37</v>
@@ -1119,7 +1119,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>38</v>
@@ -1176,7 +1176,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>49</v>
@@ -1430,6 +1430,37 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -1440,37 +1471,6 @@
 </sheetInterline>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
   <rangeList sheetStid="1" master=""/>
@@ -1482,13 +1482,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1500,13 +1500,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
